--- a/form_collectdata/form_collect/DataCollected/data.xlsx
+++ b/form_collectdata/form_collect/DataCollected/data.xlsx
@@ -1,34 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="1">
+  <si>
+    <t/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,81 +53,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -129,10 +80,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -170,69 +121,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -256,54 +209,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -313,7 +265,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -322,7 +274,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -331,7 +283,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -339,10 +291,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -371,7 +323,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -384,13 +336,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -408,68 +359,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>dinhcongnguyen</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>nguyen@gmail.com</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>pham ngoc thang</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>thangpn@gmail.com</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>vu ngoc son</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>sonvn@gmail.com</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/form_collectdata/form_collect/DataCollected/data.xlsx
+++ b/form_collectdata/form_collect/DataCollected/data.xlsx
@@ -1,41 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="1">
-  <si>
-    <t/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,25 +46,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L1" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="A1:L1"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="name" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="msv"/>
+    <tableColumn id="3" name="class"/>
+    <tableColumn id="4" name="hdcm.uv1"/>
+    <tableColumn id="5" name="hdcm.uv2"/>
+    <tableColumn id="6" name="hdcm.uv3"/>
+    <tableColumn id="7" name="hdcm.uv4"/>
+    <tableColumn id="8" name="hdcm.uv5"/>
+    <tableColumn id="9" name="hd.01"/>
+    <tableColumn id="10" name="hd.02"/>
+    <tableColumn id="11" name="hd.03"/>
+    <tableColumn id="12" name="pb" totalsRowFunction="custom">
+      <totalsRowFormula>Sum</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -359,53 +436,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col width="28.57642857142857" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
+    <col width="23.005" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col width="23.43357142857143" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
+    <col width="15.14785714285714" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
+    <col width="35.71928571428572" bestFit="1" customWidth="1" style="2" min="5" max="5"/>
+    <col width="39.14785714285715" bestFit="1" customWidth="1" style="2" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="7" max="7"/>
+    <col width="26.57642857142857" bestFit="1" customWidth="1" style="2" min="8" max="8"/>
+    <col width="56.86214285714286" bestFit="1" customWidth="1" style="2" min="9" max="9"/>
+    <col width="20.71928571428571" bestFit="1" customWidth="1" style="2" min="10" max="10"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="2" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>msv</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>class</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>hdcm.uv1</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>hdcm.uv2</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>hdcm.uv3</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>hdcm.uv4</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>hdcm.uv5</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>hd.01</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>hd.02</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>hd.03</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>pb</t>
+        </is>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Nguyễn Tiến Binh</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>B20DCDT021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>D20DTMT1</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Trần Thị Thúy Hà - C2.3: 1 - C3.2: 2 - C4.1: 3 - C6.1: 5 - C6.2: 6 - GPA: 7</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/form_collectdata/form_collect/DataCollected/data.xlsx
+++ b/form_collectdata/form_collect/DataCollected/data.xlsx
@@ -130,8 +130,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L1" headerRowCount="1" totalsRowShown="0">
-  <autoFilter ref="A1:L1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L2" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="A1:L2"/>
   <tableColumns count="12">
     <tableColumn id="1" name="name" totalsRowLabel="Total"/>
     <tableColumn id="2" name="msv"/>
@@ -436,7 +436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
@@ -525,64 +525,102 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Nguyễn Tiến Binh</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>B20DCDT021</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>D20DTMT1</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Trần Thị Thúy Hà - C2.3: 1 - C3.2: 2 - C4.1: 3 - C6.1: 5 - C6.2: 6 - GPA: 7</t>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>msv</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>class</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>hdcm.uv1</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>hdcm.uv2</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>hdcm.uv3</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>hdcm.uv4</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>hdcm.uv5</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>hd.01</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>hd.02</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>hd.03</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>pb</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>La Thị Hồng Nhung</t>
+          <t>Đỗ Trọng Khôi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B20DCDT158</t>
+          <t>B20DCDT112</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>D20XLTH</t>
+          <t>D20DTMT2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Chu Văn Bền - C3.3: 9 - C4.2: 9 - C5.3: 9 - C6.3: 9 - C6.4: 9 - GPA: 9</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Trần Thị Thục Linh - C1.1: 1 - C1.2: 2 - C5.1: 3 - GPA: 4</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Trần Thị Thục Linh - C2.3: 2 - C3.2: 2 - C4.1: 2 - C6.1: 2 - C6.2: 2 - GPA: 2</t>
-        </is>
-      </c>
+          <t>Trần Tuấn Anh - C3.3: 3 - C4.2: 4 - C5.3: 5 - C6.3: 6 - C6.4: 7 - GPA: 8</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>